--- a/python/data/Excel/All_Groups_Availability_TOS.xlsx
+++ b/python/data/Excel/All_Groups_Availability_TOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,132 +441,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>05JUN</t>
+          <t>24JUN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>06JUN</t>
+          <t>25JUN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>07JUN</t>
+          <t>26JUN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>08JUN</t>
+          <t>27JUN</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>09JUN</t>
+          <t>28JUN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10JUN</t>
+          <t>29JUN</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>11JUN</t>
+          <t>30JUN</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>12JUN</t>
+          <t>01JUL</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>13JUN</t>
+          <t>02JUL</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>14JUN</t>
+          <t>03JUL</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>15JUN</t>
+          <t>04JUL</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>16JUN</t>
+          <t>05JUL</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>17JUN</t>
+          <t>06JUL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>18JUN</t>
+          <t>07JUL</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>19JUN</t>
+          <t>08JUL</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>20JUN</t>
+          <t>09JUL</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>21JUN</t>
+          <t>10JUL</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>22JUN</t>
+          <t>11JUL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>23JUN</t>
+          <t>12JUL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>24JUN</t>
+          <t>13JUL</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>25JUN</t>
+          <t>14JUL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>26JUN</t>
+          <t>15JUL</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>27JUN</t>
+          <t>16JUL</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>28JUN</t>
+          <t>17JUL</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>29JUN</t>
+          <t>18JUL</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>30JUN</t>
+          <t>19JUL</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>20JUL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>21JUL</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>22JUL</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>23JUL</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>24JUL</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>25JUL</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>26JUL</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>27JUL</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>28JUL</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>29JUL</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>30JUL</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>31JUL</t>
         </is>
       </c>
     </row>
@@ -577,82 +637,118 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39</v>
+      </c>
+      <c r="E2" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2" t="n">
+        <v>69</v>
+      </c>
+      <c r="H2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>92</v>
+      </c>
+      <c r="K2" t="n">
+        <v>92</v>
+      </c>
+      <c r="L2" t="n">
+        <v>88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>89</v>
+      </c>
+      <c r="N2" t="n">
+        <v>89</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83</v>
+      </c>
+      <c r="P2" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>66</v>
+      </c>
+      <c r="U2" t="n">
+        <v>59</v>
+      </c>
+      <c r="V2" t="n">
+        <v>68</v>
+      </c>
+      <c r="W2" t="n">
+        <v>65</v>
+      </c>
+      <c r="X2" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="n">
         <v>41</v>
       </c>
-      <c r="C2" t="n">
+      <c r="AG2" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>55</v>
       </c>
-      <c r="D2" t="n">
+      <c r="AK2" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL2" t="n">
         <v>59</v>
       </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>58</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-21</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-42</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-44</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-51</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-59</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-57</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-66</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-71</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-76</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-81</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-83</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-82</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-80</v>
+      <c r="AM2" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -662,82 +758,118 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
         <v>24</v>
       </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>11</v>
       </c>
-      <c r="J3" t="n">
-        <v>17</v>
-      </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>18</v>
       </c>
       <c r="P3" t="n">
         <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -750,79 +882,115 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
         <v>17</v>
       </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>24</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
         <v>12</v>
       </c>
       <c r="T4" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>22</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
         <v>16</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="V4" t="n">
-        <v>20</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>14</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AK4" t="n">
         <v>8</v>
       </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AL4" t="n">
         <v>6</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +1000,118 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>76</v>
+      </c>
+      <c r="H5" t="n">
+        <v>88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>92</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>88</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89</v>
+      </c>
+      <c r="N5" t="n">
+        <v>83</v>
+      </c>
+      <c r="O5" t="n">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>66</v>
+      </c>
+      <c r="T5" t="n">
+        <v>59</v>
+      </c>
+      <c r="U5" t="n">
+        <v>68</v>
+      </c>
+      <c r="V5" t="n">
+        <v>65</v>
+      </c>
+      <c r="W5" t="n">
+        <v>59</v>
+      </c>
+      <c r="X5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC5" t="n">
         <v>55</v>
       </c>
-      <c r="C5" t="n">
+      <c r="AD5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>57</v>
+      </c>
+      <c r="AK5" t="n">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
-        <v>44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>41</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-24</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-42</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-51</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-59</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-66</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-71</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-76</v>
-      </c>
-      <c r="W5" t="n">
-        <v>-81</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-83</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-82</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>-74</v>
+      <c r="AL5" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/python/data/Excel/All_Groups_Availability_TOS.xlsx
+++ b/python/data/Excel/All_Groups_Availability_TOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,190 +441,175 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>24JUN</t>
+          <t>27JUN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>25JUN</t>
+          <t>28JUN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>26JUN</t>
+          <t>29JUN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27JUN</t>
+          <t>30JUN</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>28JUN</t>
+          <t>01JUL</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>29JUN</t>
+          <t>02JUL</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>30JUN</t>
+          <t>03JUL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>01JUL</t>
+          <t>04JUL</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>02JUL</t>
+          <t>05JUL</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>03JUL</t>
+          <t>06JUL</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>04JUL</t>
+          <t>07JUL</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>05JUL</t>
+          <t>08JUL</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>06JUL</t>
+          <t>09JUL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>07JUL</t>
+          <t>10JUL</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>08JUL</t>
+          <t>11JUL</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>09JUL</t>
+          <t>12JUL</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>10JUL</t>
+          <t>13JUL</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>11JUL</t>
+          <t>14JUL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>12JUL</t>
+          <t>15JUL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>13JUL</t>
+          <t>16JUL</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>14JUL</t>
+          <t>17JUL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>15JUL</t>
+          <t>18JUL</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>16JUL</t>
+          <t>19JUL</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>17JUL</t>
+          <t>20JUL</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>18JUL</t>
+          <t>21JUL</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>19JUL</t>
+          <t>22JUL</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>20JUL</t>
+          <t>23JUL</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>21JUL</t>
+          <t>24JUL</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>22JUL</t>
+          <t>25JUL</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>23JUL</t>
+          <t>26JUL</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>24JUL</t>
+          <t>27JUL</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>25JUL</t>
+          <t>28JUL</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>26JUL</t>
+          <t>29JUL</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>27JUL</t>
+          <t>30JUL</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>28JUL</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>29JUL</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>30JUL</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>31JUL</t>
         </is>
@@ -637,118 +622,109 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>74</v>
+      </c>
+      <c r="J2" t="n">
+        <v>70</v>
+      </c>
+      <c r="K2" t="n">
+        <v>71</v>
+      </c>
+      <c r="L2" t="n">
+        <v>65</v>
+      </c>
+      <c r="M2" t="n">
+        <v>60</v>
+      </c>
+      <c r="N2" t="n">
+        <v>60</v>
+      </c>
+      <c r="O2" t="n">
+        <v>55</v>
+      </c>
+      <c r="P2" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>49</v>
+      </c>
+      <c r="R2" t="n">
+        <v>42</v>
+      </c>
+      <c r="S2" t="n">
+        <v>51</v>
+      </c>
+      <c r="T2" t="n">
+        <v>48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>42</v>
+      </c>
+      <c r="V2" t="n">
+        <v>43</v>
+      </c>
+      <c r="W2" t="n">
+        <v>38</v>
+      </c>
+      <c r="X2" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="n">
         <v>25</v>
       </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39</v>
-      </c>
-      <c r="E2" t="n">
-        <v>58</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>76</v>
-      </c>
-      <c r="I2" t="n">
-        <v>88</v>
-      </c>
-      <c r="J2" t="n">
-        <v>92</v>
-      </c>
-      <c r="K2" t="n">
-        <v>92</v>
-      </c>
-      <c r="L2" t="n">
-        <v>88</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83</v>
-      </c>
-      <c r="P2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>66</v>
-      </c>
-      <c r="T2" t="n">
-        <v>66</v>
-      </c>
-      <c r="U2" t="n">
-        <v>59</v>
-      </c>
-      <c r="V2" t="n">
-        <v>68</v>
-      </c>
-      <c r="W2" t="n">
-        <v>65</v>
-      </c>
-      <c r="X2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>59</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>55</v>
-      </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>43</v>
       </c>
-      <c r="AH2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>57</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>59</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -758,117 +734,108 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>11</v>
       </c>
       <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" t="n">
         <v>12</v>
       </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="n">
         <v>10</v>
       </c>
-      <c r="P3" t="n">
+      <c r="W3" t="n">
         <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>16</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
         <v>10</v>
       </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
         <v>10</v>
       </c>
-      <c r="AF3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14</v>
-      </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -882,114 +849,105 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
         <v>11</v>
       </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>14</v>
       </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
         <v>12</v>
       </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10</v>
-      </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
         <v>12</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
         <v>6</v>
       </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1000,118 +958,109 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+      <c r="K5" t="n">
+        <v>65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>60</v>
+      </c>
+      <c r="N5" t="n">
+        <v>55</v>
+      </c>
+      <c r="O5" t="n">
+        <v>49</v>
+      </c>
+      <c r="P5" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>42</v>
+      </c>
+      <c r="R5" t="n">
+        <v>51</v>
+      </c>
+      <c r="S5" t="n">
+        <v>48</v>
+      </c>
+      <c r="T5" t="n">
+        <v>42</v>
+      </c>
+      <c r="U5" t="n">
+        <v>43</v>
+      </c>
+      <c r="V5" t="n">
+        <v>38</v>
+      </c>
+      <c r="W5" t="n">
+        <v>38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
-        <v>58</v>
-      </c>
-      <c r="E5" t="n">
-        <v>59</v>
-      </c>
-      <c r="F5" t="n">
-        <v>69</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92</v>
-      </c>
-      <c r="J5" t="n">
-        <v>92</v>
-      </c>
-      <c r="K5" t="n">
-        <v>88</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89</v>
-      </c>
-      <c r="N5" t="n">
-        <v>83</v>
-      </c>
-      <c r="O5" t="n">
-        <v>76</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>66</v>
-      </c>
-      <c r="S5" t="n">
-        <v>66</v>
-      </c>
-      <c r="T5" t="n">
-        <v>59</v>
-      </c>
-      <c r="U5" t="n">
-        <v>68</v>
-      </c>
-      <c r="V5" t="n">
-        <v>65</v>
-      </c>
-      <c r="W5" t="n">
-        <v>59</v>
-      </c>
-      <c r="X5" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>57</v>
-      </c>
       <c r="Z5" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="n">
         <v>41</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>43</v>
       </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>48</v>
-      </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AJ5" t="n">
-        <v>57</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>59</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>69</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
